--- a/Things we have to hand in weekly/Sprint planning.xlsx
+++ b/Things we have to hand in weekly/Sprint planning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20181751\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20181903\Documents\GitHub\DBLVis\Things we have to hand in weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F917B3F-9419-458A-98CF-97BEA488E8A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63E0F895-0B47-4B9C-9E88-435C586C2823}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{7CBC9F4E-9AFF-44EB-9A30-048360895DCE}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t>Wishes</t>
   </si>
@@ -47,42 +47,6 @@
     <t>To do</t>
   </si>
   <si>
-    <t>1. Submit button --&gt; one file at the time</t>
-  </si>
-  <si>
-    <t>2. Layout (simple)</t>
-  </si>
-  <si>
-    <t>3. Client or server? --&gt; research tutor</t>
-  </si>
-  <si>
-    <t>4. Front end developing</t>
-  </si>
-  <si>
-    <t>5. Back end developing</t>
-  </si>
-  <si>
-    <t>6. Html file</t>
-  </si>
-  <si>
-    <t>7. Retrieve data from upload file</t>
-  </si>
-  <si>
-    <t>8. Look into libraries</t>
-  </si>
-  <si>
-    <t>9. Research the data files</t>
-  </si>
-  <si>
-    <t>10. Look into node links and adjacency matrix</t>
-  </si>
-  <si>
-    <t>11. Research node.js</t>
-  </si>
-  <si>
-    <t>12. Make a github</t>
-  </si>
-  <si>
     <t>Doing</t>
   </si>
   <si>
@@ -105,6 +69,102 @@
   </si>
   <si>
     <t>Nours</t>
+  </si>
+  <si>
+    <t>Make 2nd page for visualisations</t>
+  </si>
+  <si>
+    <t>Website design</t>
+  </si>
+  <si>
+    <t>Make a list of libraries</t>
+  </si>
+  <si>
+    <t>Learn github</t>
+  </si>
+  <si>
+    <t>Update working hours</t>
+  </si>
+  <si>
+    <t>Update excel</t>
+  </si>
+  <si>
+    <t>Nours, Jay, Tessa</t>
+  </si>
+  <si>
+    <t>Learn JavaScript</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>Fred, Bas, Lyuben</t>
+  </si>
+  <si>
+    <t>Uploaded page</t>
+  </si>
+  <si>
+    <t>Bas</t>
+  </si>
+  <si>
+    <t>Parsing</t>
+  </si>
+  <si>
+    <t>Backlog into excel</t>
+  </si>
+  <si>
+    <t>Doing by</t>
+  </si>
+  <si>
+    <t>Front end developing</t>
+  </si>
+  <si>
+    <t>Back end developing</t>
+  </si>
+  <si>
+    <t>Submit button --&gt; one file at the time</t>
+  </si>
+  <si>
+    <t>Layout (simple)</t>
+  </si>
+  <si>
+    <t>Client or server? --&gt; research tutor</t>
+  </si>
+  <si>
+    <t>Html file</t>
+  </si>
+  <si>
+    <t>Retrieve data from upload file</t>
+  </si>
+  <si>
+    <t>Look into libraries</t>
+  </si>
+  <si>
+    <t>Research the data files</t>
+  </si>
+  <si>
+    <t>Look into node links and adjacency matrix</t>
+  </si>
+  <si>
+    <t>Research node.js</t>
+  </si>
+  <si>
+    <t>Make a github</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Submit button --&gt; fix errors</t>
+  </si>
+  <si>
+    <t>Make adjacency visualisations</t>
+  </si>
+  <si>
+    <t>Make nodelink visualisations</t>
   </si>
 </sst>
 </file>
@@ -148,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -171,14 +231,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,21 +565,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B6C823-4AFD-4954-9F30-B738F1F450FA}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.21875" customWidth="1"/>
-    <col min="2" max="2" width="43.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" customWidth="1"/>
+    <col min="1" max="2" width="30.21875" customWidth="1"/>
+    <col min="3" max="3" width="43.5546875" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,133 +587,342 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+      <c r="E16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
+      <c r="E17" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2"/>
+      <c r="E28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Things we have to hand in weekly/Sprint planning.xlsx
+++ b/Things we have to hand in weekly/Sprint planning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20181903\Documents\GitHub\DBLVis\Things we have to hand in weekly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20181751\OneDrive - TU Eindhoven\Documents\GitHub\DBLVis\Things we have to hand in weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63E0F895-0B47-4B9C-9E88-435C586C2823}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A99C1D-3DBF-4FD5-BDCD-D2AC94D13EBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{7CBC9F4E-9AFF-44EB-9A30-048360895DCE}"/>
   </bookViews>
@@ -565,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B6C823-4AFD-4954-9F30-B738F1F450FA}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -719,175 +719,183 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>41</v>
+      <c r="A15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -895,34 +903,12 @@
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
